--- a/data_year/zb/批发和零售业/限额以上零售业企业资产及负债/按国民经济行业分限额以上零售业企业资产.xlsx
+++ b/data_year/zb/批发和零售业/限额以上零售业企业资产及负债/按国民经济行业分限额以上零售业企业资产.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,1391 +543,841 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>636.6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>46.6</v>
+      </c>
       <c r="D2" t="n">
-        <v>130.7148</v>
+        <v>1116.1</v>
       </c>
       <c r="E2" t="n">
-        <v>159.7849</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>597.1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2363.9</v>
+      </c>
       <c r="G2" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>1005</v>
+      </c>
+      <c r="H2" t="n">
+        <v>600.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1840.3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>707.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2046.3</v>
+      </c>
       <c r="L2" t="n">
-        <v>104.7667</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+        <v>8574.6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6315.8</v>
+      </c>
       <c r="N2" t="n">
-        <v>2372.9</v>
+        <v>5253.8</v>
       </c>
       <c r="O2" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+        <v>992.9</v>
+      </c>
+      <c r="P2" t="n">
+        <v>8746.700000000001</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1056.1</v>
+      </c>
       <c r="R2" t="n">
-        <v>15.5552</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+        <v>318.4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3218.6</v>
+      </c>
+      <c r="T2" t="n">
+        <v>157.9</v>
+      </c>
+      <c r="U2" t="n">
+        <v>125.7</v>
+      </c>
       <c r="V2" t="n">
-        <v>486.5164</v>
+        <v>521.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>916.1222</v>
+      </c>
+      <c r="C3" t="n">
+        <v>64.38800000000001</v>
+      </c>
       <c r="D3" t="n">
-        <v>165.8466</v>
+        <v>1425.4241</v>
       </c>
       <c r="E3" t="n">
-        <v>192.1703</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>615.6674</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2757.3451</v>
+      </c>
       <c r="G3" t="n">
-        <v>18.2301</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1194.2252</v>
+      </c>
+      <c r="H3" t="n">
+        <v>795.6561</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2099.6497</v>
+      </c>
+      <c r="J3" t="n">
+        <v>991.4888</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2606.9688</v>
+      </c>
       <c r="L3" t="n">
-        <v>141.3465</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>11074.4895</v>
+      </c>
+      <c r="M3" t="n">
+        <v>8208.5921</v>
+      </c>
       <c r="N3" t="n">
-        <v>2515.6016</v>
+        <v>6534.3791</v>
       </c>
       <c r="O3" t="n">
-        <v>102.3029</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+        <v>1399.2395</v>
+      </c>
+      <c r="P3" t="n">
+        <v>10489.7577</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1332.7764</v>
+      </c>
       <c r="R3" t="n">
-        <v>40.1722</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+        <v>376.9351</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3627.6998</v>
+      </c>
+      <c r="T3" t="n">
+        <v>223.9656</v>
+      </c>
+      <c r="U3" t="n">
+        <v>175.0067</v>
+      </c>
       <c r="V3" t="n">
-        <v>355.5655</v>
+        <v>790.6281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>913.76154</v>
+      </c>
+      <c r="C4" t="n">
+        <v>87.1936</v>
+      </c>
       <c r="D4" t="n">
-        <v>207.6192</v>
+        <v>1931.80293</v>
       </c>
       <c r="E4" t="n">
-        <v>212.8648</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>782.99343</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3603.00545</v>
+      </c>
       <c r="G4" t="n">
-        <v>17.3517</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1562.4416</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1255.80674</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2331.17506</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1249.79873</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3230.83256</v>
+      </c>
       <c r="L4" t="n">
-        <v>295.1177</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>13580.92081</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10037.71979</v>
+      </c>
       <c r="N4" t="n">
-        <v>2650.5388</v>
+        <v>7397.15512</v>
       </c>
       <c r="O4" t="n">
-        <v>111.8033</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+        <v>1831.08576</v>
+      </c>
+      <c r="P4" t="n">
+        <v>11834.99471</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1791.3271</v>
+      </c>
       <c r="R4" t="n">
-        <v>63.4811</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+        <v>464.86834</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4152.06295</v>
+      </c>
+      <c r="T4" t="n">
+        <v>262.17048</v>
+      </c>
+      <c r="U4" t="n">
+        <v>315.8</v>
+      </c>
       <c r="V4" t="n">
-        <v>334.4703</v>
+        <v>1213.48697</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>105.81379</v>
+        <v>1424.02833</v>
       </c>
       <c r="C5" t="n">
-        <v>5.37578</v>
+        <v>101.43061</v>
       </c>
       <c r="D5" t="n">
-        <v>233.32887</v>
+        <v>2458.19025</v>
       </c>
       <c r="E5" t="n">
-        <v>218.97447</v>
+        <v>896.08298</v>
       </c>
       <c r="F5" t="n">
-        <v>462.30974</v>
+        <v>3438.64746</v>
       </c>
       <c r="G5" t="n">
-        <v>287.6572</v>
+        <v>1925.33741</v>
       </c>
       <c r="H5" t="n">
-        <v>102.26139</v>
+        <v>1499.36128</v>
       </c>
       <c r="I5" t="n">
-        <v>339.36253</v>
+        <v>1929.88482</v>
       </c>
       <c r="J5" t="n">
-        <v>83.54422</v>
+        <v>1568.71562</v>
       </c>
       <c r="K5" t="n">
-        <v>154.01966</v>
+        <v>3596.75031</v>
       </c>
       <c r="L5" t="n">
-        <v>736.26495</v>
+        <v>16058.35593</v>
       </c>
       <c r="M5" t="n">
-        <v>525.45735</v>
+        <v>12135.24899</v>
       </c>
       <c r="N5" t="n">
-        <v>2271.43065</v>
+        <v>8790.256880000001</v>
       </c>
       <c r="O5" t="n">
-        <v>158.00849</v>
+        <v>2346.54694</v>
       </c>
       <c r="P5" t="n">
-        <v>3251.61183</v>
-      </c>
-      <c r="Q5" t="inlineStr"/>
+        <v>13915.6374</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2263.34061</v>
+      </c>
       <c r="R5" t="n">
-        <v>49.70138</v>
+        <v>544.0385</v>
       </c>
       <c r="S5" t="n">
-        <v>871.0895</v>
+        <v>4777.26826</v>
       </c>
       <c r="T5" t="n">
-        <v>67.68225</v>
+        <v>290.8528</v>
       </c>
       <c r="U5" t="n">
-        <v>1.865</v>
+        <v>430.84354</v>
       </c>
       <c r="V5" t="n">
-        <v>215.71377</v>
+        <v>1372.33671</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>207.76156</v>
+        <v>1578.68681</v>
       </c>
       <c r="C6" t="n">
-        <v>10.01489</v>
+        <v>84.49786</v>
       </c>
       <c r="D6" t="n">
-        <v>423.64889</v>
+        <v>3020.13362</v>
       </c>
       <c r="E6" t="n">
-        <v>294.4822</v>
+        <v>981.96944</v>
       </c>
       <c r="F6" t="n">
-        <v>685.9684</v>
+        <v>3694.09764</v>
       </c>
       <c r="G6" t="n">
-        <v>409.97674</v>
+        <v>2182.50108</v>
       </c>
       <c r="H6" t="n">
-        <v>162.55732</v>
+        <v>1960.85651</v>
       </c>
       <c r="I6" t="n">
-        <v>486.19095</v>
+        <v>1995.19257</v>
       </c>
       <c r="J6" t="n">
-        <v>165.01049</v>
+        <v>1768.96503</v>
       </c>
       <c r="K6" t="n">
-        <v>397.83973</v>
+        <v>4241.74833</v>
       </c>
       <c r="L6" t="n">
-        <v>1858.00602</v>
+        <v>18951.00973</v>
       </c>
       <c r="M6" t="n">
-        <v>1385.35041</v>
+        <v>14319.24028</v>
       </c>
       <c r="N6" t="n">
-        <v>2246.58762</v>
+        <v>9142.10982</v>
       </c>
       <c r="O6" t="n">
-        <v>256.69838</v>
+        <v>2692.4065</v>
       </c>
       <c r="P6" t="n">
-        <v>3474.06833</v>
+        <v>14468.31452</v>
       </c>
       <c r="Q6" t="n">
-        <v>355.2707</v>
+        <v>2765.34132</v>
       </c>
       <c r="R6" t="n">
-        <v>97.81375</v>
+        <v>592.86014</v>
       </c>
       <c r="S6" t="n">
-        <v>1098.21823</v>
+        <v>4985.17508</v>
       </c>
       <c r="T6" t="n">
-        <v>80.29622000000001</v>
+        <v>336.10303</v>
       </c>
       <c r="U6" t="n">
-        <v>7.80605</v>
+        <v>744.43162</v>
       </c>
       <c r="V6" t="n">
-        <v>224.31679</v>
+        <v>2276.91669</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>192.86712</v>
+        <v>1671.4255</v>
       </c>
       <c r="C7" t="n">
-        <v>10.24511</v>
+        <v>99.983</v>
       </c>
       <c r="D7" t="n">
-        <v>409.42683</v>
+        <v>3286.2404</v>
       </c>
       <c r="E7" t="n">
-        <v>322.29739</v>
+        <v>1103.739</v>
       </c>
       <c r="F7" t="n">
-        <v>792.63188</v>
+        <v>3973.4915</v>
       </c>
       <c r="G7" t="n">
-        <v>464.35426</v>
+        <v>2319.2484</v>
       </c>
       <c r="H7" t="n">
-        <v>181.4712</v>
+        <v>1938.0748</v>
       </c>
       <c r="I7" t="n">
-        <v>563.1754100000001</v>
+        <v>2053.8087</v>
       </c>
       <c r="J7" t="n">
-        <v>152.56647</v>
+        <v>2164.2365</v>
       </c>
       <c r="K7" t="n">
-        <v>571.66621</v>
+        <v>5217.9125</v>
       </c>
       <c r="L7" t="n">
-        <v>2141.42145</v>
+        <v>20240.6934</v>
       </c>
       <c r="M7" t="n">
-        <v>1498.06851</v>
+        <v>14465.7452</v>
       </c>
       <c r="N7" t="n">
-        <v>2352.8513</v>
+        <v>9631.7436</v>
       </c>
       <c r="O7" t="n">
-        <v>239.0368</v>
+        <v>3169.3874</v>
       </c>
       <c r="P7" t="n">
-        <v>3803.89014</v>
+        <v>14949.5182</v>
       </c>
       <c r="Q7" t="n">
-        <v>375.04316</v>
+        <v>3101.963</v>
       </c>
       <c r="R7" t="n">
-        <v>127.474</v>
+        <v>559.974</v>
       </c>
       <c r="S7" t="n">
-        <v>1310.75149</v>
+        <v>4944.3404</v>
       </c>
       <c r="T7" t="n">
-        <v>76.22122</v>
+        <v>529.5613</v>
       </c>
       <c r="U7" t="n">
-        <v>4.09716</v>
+        <v>732.2238</v>
       </c>
       <c r="V7" t="n">
-        <v>201.12087</v>
+        <v>1959.2348</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>217.4297</v>
+        <v>1934.738</v>
       </c>
       <c r="C8" t="n">
-        <v>17.311</v>
+        <v>120.0949</v>
       </c>
       <c r="D8" t="n">
-        <v>444.144</v>
+        <v>3835.1533</v>
       </c>
       <c r="E8" t="n">
-        <v>346.4037</v>
+        <v>1238.3371</v>
       </c>
       <c r="F8" t="n">
-        <v>857.1839</v>
+        <v>5618.5257</v>
       </c>
       <c r="G8" t="n">
-        <v>512.5318</v>
+        <v>2552.1698</v>
       </c>
       <c r="H8" t="n">
-        <v>181.9362</v>
+        <v>2803.7792</v>
       </c>
       <c r="I8" t="n">
-        <v>615.7749</v>
+        <v>3526.2607</v>
       </c>
       <c r="J8" t="n">
-        <v>186.8476</v>
+        <v>2473.6678</v>
       </c>
       <c r="K8" t="n">
-        <v>713.3452</v>
+        <v>6137.0086</v>
       </c>
       <c r="L8" t="n">
-        <v>2743.7395</v>
+        <v>22362.6061</v>
       </c>
       <c r="M8" t="n">
-        <v>1949.3985</v>
+        <v>15690.2164</v>
       </c>
       <c r="N8" t="n">
-        <v>2743.427</v>
+        <v>10322.0076</v>
       </c>
       <c r="O8" t="n">
-        <v>286.7404</v>
+        <v>3547.1551</v>
       </c>
       <c r="P8" t="n">
-        <v>4477.4687</v>
+        <v>15774.0433</v>
       </c>
       <c r="Q8" t="n">
-        <v>396.9815</v>
+        <v>3595.8777</v>
       </c>
       <c r="R8" t="n">
-        <v>134.2124</v>
+        <v>629.5297</v>
       </c>
       <c r="S8" t="n">
-        <v>1527.0688</v>
+        <v>5080.2211</v>
       </c>
       <c r="T8" t="n">
-        <v>79.5005</v>
+        <v>441.7374</v>
       </c>
       <c r="U8" t="n">
-        <v>14.3774</v>
+        <v>1532.0645</v>
       </c>
       <c r="V8" t="n">
-        <v>244.4322</v>
+        <v>2007.8069</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>281.77943</v>
+        <v>1483.522</v>
       </c>
       <c r="C9" t="n">
-        <v>26.43469</v>
+        <v>138.611</v>
       </c>
       <c r="D9" t="n">
-        <v>505.84768</v>
+        <v>3401.887</v>
       </c>
       <c r="E9" t="n">
-        <v>342.35039</v>
+        <v>1218.404</v>
       </c>
       <c r="F9" t="n">
-        <v>1169.19801</v>
+        <v>5065.412</v>
       </c>
       <c r="G9" t="n">
-        <v>548.8336</v>
+        <v>2624.522</v>
       </c>
       <c r="H9" t="n">
-        <v>221.7983</v>
+        <v>3478.836</v>
       </c>
       <c r="I9" t="n">
-        <v>867.9924</v>
+        <v>2928.305</v>
       </c>
       <c r="J9" t="n">
-        <v>277.16875</v>
+        <v>2381.376</v>
       </c>
       <c r="K9" t="n">
-        <v>647.9372100000001</v>
+        <v>6362.418</v>
       </c>
       <c r="L9" t="n">
-        <v>3304.03516</v>
+        <v>22699.17</v>
       </c>
       <c r="M9" t="n">
-        <v>2561.40699</v>
+        <v>15830.678</v>
       </c>
       <c r="N9" t="n">
-        <v>3146.40606</v>
+        <v>11436.466</v>
       </c>
       <c r="O9" t="n">
-        <v>386.44398</v>
+        <v>3539.419</v>
       </c>
       <c r="P9" t="n">
-        <v>5124.28662</v>
+        <v>16709.244</v>
       </c>
       <c r="Q9" t="n">
-        <v>470.83771</v>
+        <v>3179.489</v>
       </c>
       <c r="R9" t="n">
-        <v>170.89683</v>
+        <v>743.794</v>
       </c>
       <c r="S9" t="n">
-        <v>1755.29619</v>
+        <v>4903.52</v>
       </c>
       <c r="T9" t="n">
-        <v>99.23314000000001</v>
+        <v>464.493</v>
       </c>
       <c r="U9" t="n">
-        <v>24.1613</v>
+        <v>2470.548</v>
       </c>
       <c r="V9" t="n">
-        <v>266.93889</v>
+        <v>2203.885</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>400.4183</v>
+        <v>1430.6819</v>
       </c>
       <c r="C10" t="n">
-        <v>23.0099</v>
+        <v>173.4602</v>
       </c>
       <c r="D10" t="n">
-        <v>678.3203</v>
+        <v>3079.7682</v>
       </c>
       <c r="E10" t="n">
-        <v>477.8363</v>
+        <v>1443.1817</v>
       </c>
       <c r="F10" t="n">
-        <v>1508.4116</v>
+        <v>5268.6187</v>
       </c>
       <c r="G10" t="n">
-        <v>760.765</v>
+        <v>2906.3011</v>
       </c>
       <c r="H10" t="n">
-        <v>368.3555</v>
+        <v>3542.2997</v>
       </c>
       <c r="I10" t="n">
-        <v>1159.0482</v>
+        <v>3123.4314</v>
       </c>
       <c r="J10" t="n">
-        <v>526.4514</v>
+        <v>2422.1035</v>
       </c>
       <c r="K10" t="n">
-        <v>1465.7146</v>
+        <v>7227.4764</v>
       </c>
       <c r="L10" t="n">
-        <v>5326.1882</v>
+        <v>23809.902</v>
       </c>
       <c r="M10" t="n">
-        <v>3713.8882</v>
+        <v>15740.2315</v>
       </c>
       <c r="N10" t="n">
-        <v>3778.6182</v>
+        <v>10177.1203</v>
       </c>
       <c r="O10" t="n">
-        <v>753.8558</v>
+        <v>3600.7457</v>
       </c>
       <c r="P10" t="n">
-        <v>6236.4922</v>
+        <v>15697.4039</v>
       </c>
       <c r="Q10" t="n">
-        <v>645.6487</v>
+        <v>2793.5375</v>
       </c>
       <c r="R10" t="n">
-        <v>198.6536</v>
+        <v>727.9038</v>
       </c>
       <c r="S10" t="n">
-        <v>2291.3125</v>
+        <v>5036.9134</v>
       </c>
       <c r="T10" t="n">
-        <v>122.7092</v>
+        <v>545.544</v>
       </c>
       <c r="U10" t="n">
-        <v>62.1005</v>
+        <v>2658.356</v>
       </c>
       <c r="V10" t="n">
-        <v>347.9878</v>
+        <v>2492.6201</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>453.81976</v>
+        <v>1410.8821</v>
       </c>
       <c r="C11" t="n">
-        <v>37.0393</v>
+        <v>139.2803</v>
       </c>
       <c r="D11" t="n">
-        <v>818.4283</v>
+        <v>2684.8763</v>
       </c>
       <c r="E11" t="n">
-        <v>535.25728</v>
+        <v>1524.813</v>
       </c>
       <c r="F11" t="n">
-        <v>1924.2639</v>
+        <v>4440.2342</v>
       </c>
       <c r="G11" t="n">
-        <v>847.1138999999999</v>
+        <v>2971.5037</v>
       </c>
       <c r="H11" t="n">
-        <v>446.79649</v>
+        <v>4643.016</v>
       </c>
       <c r="I11" t="n">
-        <v>1513.84761</v>
+        <v>2589.4585</v>
       </c>
       <c r="J11" t="n">
-        <v>570.72465</v>
+        <v>2647.7902</v>
       </c>
       <c r="K11" t="n">
-        <v>1791.8425</v>
+        <v>8438.681500000001</v>
       </c>
       <c r="L11" t="n">
-        <v>6600.91891</v>
+        <v>24960.682</v>
       </c>
       <c r="M11" t="n">
-        <v>4632.06239</v>
+        <v>15496.2281</v>
       </c>
       <c r="N11" t="n">
-        <v>4284.99404</v>
+        <v>11298.0437</v>
       </c>
       <c r="O11" t="n">
-        <v>874.08584</v>
+        <v>4139.9355</v>
       </c>
       <c r="P11" t="n">
-        <v>7148.14715</v>
+        <v>17233.9165</v>
       </c>
       <c r="Q11" t="n">
-        <v>778.74882</v>
+        <v>2325.2289</v>
       </c>
       <c r="R11" t="n">
-        <v>236.37761</v>
+        <v>564.1944</v>
       </c>
       <c r="S11" t="n">
-        <v>2673.64069</v>
+        <v>5351.1198</v>
       </c>
       <c r="T11" t="n">
-        <v>129.17487</v>
+        <v>498.3452</v>
       </c>
       <c r="U11" t="n">
-        <v>68.50763000000001</v>
+        <v>3509.3121</v>
       </c>
       <c r="V11" t="n">
-        <v>409.28257</v>
+        <v>2406.7098</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>636.6</v>
+        <v>1243.9786</v>
       </c>
       <c r="C12" t="n">
-        <v>46.6</v>
+        <v>133.0593</v>
       </c>
       <c r="D12" t="n">
-        <v>1116.1</v>
+        <v>2946.4009</v>
       </c>
       <c r="E12" t="n">
-        <v>597.1</v>
+        <v>1748.5144</v>
       </c>
       <c r="F12" t="n">
-        <v>2363.9</v>
+        <v>4968.3919</v>
       </c>
       <c r="G12" t="n">
-        <v>1005</v>
+        <v>3233.8437</v>
       </c>
       <c r="H12" t="n">
-        <v>600.7</v>
+        <v>6402.0384</v>
       </c>
       <c r="I12" t="n">
-        <v>1840.3</v>
+        <v>3049.1103</v>
       </c>
       <c r="J12" t="n">
-        <v>707.1</v>
+        <v>2909.2317</v>
       </c>
       <c r="K12" t="n">
-        <v>2046.3</v>
+        <v>7220.3942</v>
       </c>
       <c r="L12" t="n">
-        <v>8574.6</v>
+        <v>24188.3824</v>
       </c>
       <c r="M12" t="n">
-        <v>6315.8</v>
+        <v>16078.77</v>
       </c>
       <c r="N12" t="n">
-        <v>5253.8</v>
+        <v>10810.4818</v>
       </c>
       <c r="O12" t="n">
-        <v>992.9</v>
+        <v>4184.7577</v>
       </c>
       <c r="P12" t="n">
-        <v>8746.700000000001</v>
+        <v>17246.2887</v>
       </c>
       <c r="Q12" t="n">
-        <v>1056.1</v>
+        <v>2657.5749</v>
       </c>
       <c r="R12" t="n">
-        <v>318.4</v>
+        <v>626.4629</v>
       </c>
       <c r="S12" t="n">
-        <v>3218.6</v>
+        <v>5783.6988</v>
       </c>
       <c r="T12" t="n">
-        <v>157.9</v>
+        <v>496.7084</v>
       </c>
       <c r="U12" t="n">
-        <v>125.7</v>
+        <v>5413.5686</v>
       </c>
       <c r="V12" t="n">
-        <v>521.4</v>
+        <v>2922.8238</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.1222</v>
+        <v>1311.9833</v>
       </c>
       <c r="C13" t="n">
-        <v>64.38800000000001</v>
+        <v>126.3422</v>
       </c>
       <c r="D13" t="n">
-        <v>1425.4241</v>
+        <v>3138.7131</v>
       </c>
       <c r="E13" t="n">
-        <v>615.6674</v>
+        <v>1979.7944</v>
       </c>
       <c r="F13" t="n">
-        <v>2757.3451</v>
+        <v>5163.1385</v>
       </c>
       <c r="G13" t="n">
-        <v>1194.2252</v>
+        <v>3812.6118</v>
       </c>
       <c r="H13" t="n">
-        <v>795.6561</v>
+        <v>7391.7617</v>
       </c>
       <c r="I13" t="n">
-        <v>2099.6497</v>
+        <v>3230.5709</v>
       </c>
       <c r="J13" t="n">
-        <v>991.4888</v>
+        <v>2905.3313</v>
       </c>
       <c r="K13" t="n">
-        <v>2606.9688</v>
+        <v>8100.6866</v>
       </c>
       <c r="L13" t="n">
-        <v>11074.4895</v>
+        <v>25302.5587</v>
       </c>
       <c r="M13" t="n">
-        <v>8208.5921</v>
+        <v>16296.1172</v>
       </c>
       <c r="N13" t="n">
-        <v>6534.3791</v>
+        <v>11635.708</v>
       </c>
       <c r="O13" t="n">
-        <v>1399.2395</v>
+        <v>4626.3418</v>
       </c>
       <c r="P13" t="n">
-        <v>10489.7577</v>
+        <v>18425.0861</v>
       </c>
       <c r="Q13" t="n">
-        <v>1332.7764</v>
+        <v>2783.8875</v>
       </c>
       <c r="R13" t="n">
-        <v>376.9351</v>
+        <v>627.9313</v>
       </c>
       <c r="S13" t="n">
-        <v>3627.6998</v>
+        <v>6125.8272</v>
       </c>
       <c r="T13" t="n">
-        <v>223.9656</v>
+        <v>558.2657</v>
       </c>
       <c r="U13" t="n">
-        <v>175.0067</v>
+        <v>6557.3162</v>
       </c>
       <c r="V13" t="n">
-        <v>790.6281</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>913.76154</v>
-      </c>
-      <c r="C14" t="n">
-        <v>87.1936</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1931.80293</v>
-      </c>
-      <c r="E14" t="n">
-        <v>782.99343</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3603.00545</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1562.4416</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1255.80674</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2331.17506</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1249.79873</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3230.83256</v>
-      </c>
-      <c r="L14" t="n">
-        <v>13580.92081</v>
-      </c>
-      <c r="M14" t="n">
-        <v>10037.71979</v>
-      </c>
-      <c r="N14" t="n">
-        <v>7397.15512</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1831.08576</v>
-      </c>
-      <c r="P14" t="n">
-        <v>11834.99471</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1791.3271</v>
-      </c>
-      <c r="R14" t="n">
-        <v>464.86834</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4152.06295</v>
-      </c>
-      <c r="T14" t="n">
-        <v>262.17048</v>
-      </c>
-      <c r="U14" t="n">
-        <v>315.8</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1213.48697</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1424.02833</v>
-      </c>
-      <c r="C15" t="n">
-        <v>101.43061</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2458.19025</v>
-      </c>
-      <c r="E15" t="n">
-        <v>896.08298</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3438.64746</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1925.33741</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1499.36128</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1929.88482</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1568.71562</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3596.75031</v>
-      </c>
-      <c r="L15" t="n">
-        <v>16058.35593</v>
-      </c>
-      <c r="M15" t="n">
-        <v>12135.24899</v>
-      </c>
-      <c r="N15" t="n">
-        <v>8790.256880000001</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2346.54694</v>
-      </c>
-      <c r="P15" t="n">
-        <v>13915.6374</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2263.34061</v>
-      </c>
-      <c r="R15" t="n">
-        <v>544.0385</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4777.26826</v>
-      </c>
-      <c r="T15" t="n">
-        <v>290.8528</v>
-      </c>
-      <c r="U15" t="n">
-        <v>430.84354</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1372.33671</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1578.68681</v>
-      </c>
-      <c r="C16" t="n">
-        <v>84.49786</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3020.13362</v>
-      </c>
-      <c r="E16" t="n">
-        <v>981.96944</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3694.09764</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2182.50108</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1960.85651</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1995.19257</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1768.96503</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4241.74833</v>
-      </c>
-      <c r="L16" t="n">
-        <v>18951.00973</v>
-      </c>
-      <c r="M16" t="n">
-        <v>14319.24028</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9142.10982</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2692.4065</v>
-      </c>
-      <c r="P16" t="n">
-        <v>14468.31452</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2765.34132</v>
-      </c>
-      <c r="R16" t="n">
-        <v>592.86014</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4985.17508</v>
-      </c>
-      <c r="T16" t="n">
-        <v>336.10303</v>
-      </c>
-      <c r="U16" t="n">
-        <v>744.43162</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2276.91669</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1671.4255</v>
-      </c>
-      <c r="C17" t="n">
-        <v>99.983</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3286.2404</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1103.739</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3973.4915</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2319.2484</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1938.0748</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2053.8087</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2164.2365</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5217.9125</v>
-      </c>
-      <c r="L17" t="n">
-        <v>20240.6934</v>
-      </c>
-      <c r="M17" t="n">
-        <v>14465.7452</v>
-      </c>
-      <c r="N17" t="n">
-        <v>9631.7436</v>
-      </c>
-      <c r="O17" t="n">
-        <v>3169.3874</v>
-      </c>
-      <c r="P17" t="n">
-        <v>14949.5182</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3101.963</v>
-      </c>
-      <c r="R17" t="n">
-        <v>559.974</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4944.3404</v>
-      </c>
-      <c r="T17" t="n">
-        <v>529.5613</v>
-      </c>
-      <c r="U17" t="n">
-        <v>732.2238</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1959.2348</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1934.738</v>
-      </c>
-      <c r="C18" t="n">
-        <v>120.0949</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3835.1533</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1238.3371</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5618.5257</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2552.1698</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2803.7792</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3526.2607</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2473.6678</v>
-      </c>
-      <c r="K18" t="n">
-        <v>6137.0086</v>
-      </c>
-      <c r="L18" t="n">
-        <v>22362.6061</v>
-      </c>
-      <c r="M18" t="n">
-        <v>15690.2164</v>
-      </c>
-      <c r="N18" t="n">
-        <v>10322.0076</v>
-      </c>
-      <c r="O18" t="n">
-        <v>3547.1551</v>
-      </c>
-      <c r="P18" t="n">
-        <v>15774.0433</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3595.8777</v>
-      </c>
-      <c r="R18" t="n">
-        <v>629.5297</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5080.2211</v>
-      </c>
-      <c r="T18" t="n">
-        <v>441.7374</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1532.0645</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2007.8069</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1483.522</v>
-      </c>
-      <c r="C19" t="n">
-        <v>138.611</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3401.887</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1218.404</v>
-      </c>
-      <c r="F19" t="n">
-        <v>5065.412</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2624.522</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3478.836</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2928.305</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2381.376</v>
-      </c>
-      <c r="K19" t="n">
-        <v>6362.418</v>
-      </c>
-      <c r="L19" t="n">
-        <v>22699.17</v>
-      </c>
-      <c r="M19" t="n">
-        <v>15830.678</v>
-      </c>
-      <c r="N19" t="n">
-        <v>11436.466</v>
-      </c>
-      <c r="O19" t="n">
-        <v>3539.419</v>
-      </c>
-      <c r="P19" t="n">
-        <v>16709.244</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3179.489</v>
-      </c>
-      <c r="R19" t="n">
-        <v>743.794</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4903.52</v>
-      </c>
-      <c r="T19" t="n">
-        <v>464.493</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2470.548</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2203.885</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1430.6819</v>
-      </c>
-      <c r="C20" t="n">
-        <v>173.4602</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3079.7682</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1443.1817</v>
-      </c>
-      <c r="F20" t="n">
-        <v>5268.6187</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2906.3011</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3542.2997</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3123.4314</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2422.1035</v>
-      </c>
-      <c r="K20" t="n">
-        <v>7227.4764</v>
-      </c>
-      <c r="L20" t="n">
-        <v>23809.902</v>
-      </c>
-      <c r="M20" t="n">
-        <v>15740.2315</v>
-      </c>
-      <c r="N20" t="n">
-        <v>10177.1203</v>
-      </c>
-      <c r="O20" t="n">
-        <v>3600.7457</v>
-      </c>
-      <c r="P20" t="n">
-        <v>15697.4039</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2793.5375</v>
-      </c>
-      <c r="R20" t="n">
-        <v>727.9038</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5036.9134</v>
-      </c>
-      <c r="T20" t="n">
-        <v>545.544</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2658.356</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2492.6201</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1410.8821</v>
-      </c>
-      <c r="C21" t="n">
-        <v>139.2803</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2684.8763</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1524.813</v>
-      </c>
-      <c r="F21" t="n">
-        <v>4440.2342</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2971.5037</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4643.016</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2589.4585</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2647.7902</v>
-      </c>
-      <c r="K21" t="n">
-        <v>8438.681500000001</v>
-      </c>
-      <c r="L21" t="n">
-        <v>24960.682</v>
-      </c>
-      <c r="M21" t="n">
-        <v>15496.2281</v>
-      </c>
-      <c r="N21" t="n">
-        <v>11298.0437</v>
-      </c>
-      <c r="O21" t="n">
-        <v>4139.9355</v>
-      </c>
-      <c r="P21" t="n">
-        <v>17233.9165</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2325.2289</v>
-      </c>
-      <c r="R21" t="n">
-        <v>564.1944</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5351.1198</v>
-      </c>
-      <c r="T21" t="n">
-        <v>498.3452</v>
-      </c>
-      <c r="U21" t="n">
-        <v>3509.3121</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2406.7098</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1243.9786</v>
-      </c>
-      <c r="C22" t="n">
-        <v>133.0593</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2946.4009</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1748.5144</v>
-      </c>
-      <c r="F22" t="n">
-        <v>4968.3919</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3233.8437</v>
-      </c>
-      <c r="H22" t="n">
-        <v>6402.0384</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3049.1103</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2909.2317</v>
-      </c>
-      <c r="K22" t="n">
-        <v>7220.3942</v>
-      </c>
-      <c r="L22" t="n">
-        <v>24188.3824</v>
-      </c>
-      <c r="M22" t="n">
-        <v>16078.77</v>
-      </c>
-      <c r="N22" t="n">
-        <v>10810.4818</v>
-      </c>
-      <c r="O22" t="n">
-        <v>4184.7577</v>
-      </c>
-      <c r="P22" t="n">
-        <v>17246.2887</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2657.5749</v>
-      </c>
-      <c r="R22" t="n">
-        <v>626.4629</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5783.6988</v>
-      </c>
-      <c r="T22" t="n">
-        <v>496.7084</v>
-      </c>
-      <c r="U22" t="n">
-        <v>5413.5686</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2922.8238</v>
+        <v>3426.3116</v>
       </c>
     </row>
   </sheetData>
